--- a/接口/apollo接口.xlsx
+++ b/接口/apollo接口.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>functionname</t>
   </si>
@@ -39,83 +39,347 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-1.操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpuInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biosInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motherboardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memoryInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphicsCardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardDiskInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtualMachineInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>securityPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>databaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAuthentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usbRoutineCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usbDepthCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileRoutineCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedFileRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileFragmentsCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threatDocument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>networkWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netRecordsDepthCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>networkSoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapterDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueToothDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2.CPU信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.BIOS信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4.主板信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5.内存信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6.显卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1.硬盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2.虚拟机信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3.网络配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4.网卡设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5.打印机设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6.蓝牙设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.系统安全信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1.未安装补丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2.系统服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3.系统进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4.外连产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5.开关机时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6.安全软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1.安全策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2.开放端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3.共享信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4.上网软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5.组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6.用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7.数据库信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8.事件日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9.用户认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.USB设备记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1.USB常规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2.USB深度检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.上网记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1.上网记录常规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2.上网记录深度检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.文件检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1.文件常规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2.已删除文件恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3.文件碎片检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.木马检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1.网络武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2.威胁文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemSecurityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSwitchMachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>securitySoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patchNotInstalled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service name: com.bmjc.ui, path name: /bmjc/ui, interface name: bmjc.ui; function name:updateFromTool(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service name: com.bmjc.backend, path name: /bmjc/backend, interface name: bmjc.backend; function name:reveiveFromUI(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatingSystemInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1.操作系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpuInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biosInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motherboardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memoryInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graphicsCardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hardDiskInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtualMachineInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operatingSystemInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>securityPolicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharingInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>databaseInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAuthentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usbRoutineCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usbDepthCheck</t>
+    <t>2.设备连接信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceConnectInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.安全隐患信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiddenOfSafeInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usbDeviceRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,255 +387,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fileRoutineCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deletedFileRecovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileFragmentsCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threatDocument</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>networkWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netRecordsDepthCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>networkSoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adapterDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>printDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueToothDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evenProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2.CPU信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3.BIOS信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4.主板信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5.内存信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6.显卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.设备连接信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1.硬盘信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2.虚拟机信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3.网络配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-4.网卡设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5.打印机设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-6.蓝牙设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.系统安全信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1.未安装补丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2.系统服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3.系统进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4.外连产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5.开关机时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-6.安全软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.安全隐患信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1.安全策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2.开放端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3.共享信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4.上网软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5.组信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-6.用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-7.数据库信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-8.事件日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-9.用户认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.USB设备记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1.USB常规检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2.USB深度检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.上网记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1.上网记录常规检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2.上网记录深度检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.文件检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1.文件常规检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2.已删除文件恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3.文件碎片检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.木马检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1.网络武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2.威胁文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemSecurityInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeSwitchMachine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>securitySoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patchNotInstalled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service name: com.bmjc.ui, path name: /bmjc/ui, interface name: bmjc.ui; function name:updateFromTool(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service name: com.bmjc.backend, path name: /bmjc/backend, interface name: bmjc.backend; function name:reveiveFromUI(String)</t>
+    <t>netRecords</t>
+  </si>
+  <si>
+    <t>fileCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trojanCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,12 +812,12 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
@@ -801,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -837,18 +864,18 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -856,12 +883,14 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -871,10 +900,10 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -884,10 +913,10 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -897,10 +926,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -910,10 +939,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -931,13 +960,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -945,12 +974,14 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -960,10 +991,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -973,10 +1004,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -986,10 +1017,10 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -999,10 +1030,10 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1020,13 +1051,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1035,13 +1066,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1051,10 +1082,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1064,10 +1095,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1077,10 +1108,10 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1090,10 +1121,10 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1111,13 +1142,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1125,12 +1156,14 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1140,10 +1173,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1153,10 +1186,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1166,10 +1199,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1179,10 +1212,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1192,10 +1225,10 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1205,10 +1238,10 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1218,10 +1251,10 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1239,13 +1272,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1253,12 +1286,14 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1276,13 +1311,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1290,12 +1325,14 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1313,13 +1350,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1327,12 +1364,14 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1342,10 +1381,10 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1363,13 +1402,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1377,12 +1416,14 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1412,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
